--- a/defects sheet.xlsx
+++ b/defects sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marpa\AndroidStudioProjects\excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A14D7-05FF-4256-A34C-6F23FBDF8D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B22E65-4A6D-486B-B751-30C7C6CAB35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>S.no</t>
   </si>
@@ -34,19 +34,43 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>JTransform library integration error</t>
+  </si>
+  <si>
+    <t>Model input/output format mismatch (Kotlin/TF)</t>
+  </si>
+  <si>
+    <t>AndroidManifest.xml missing permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scream detection model not loading (TFLite)	</t>
+  </si>
+  <si>
+    <t>NNAPI Fallback implemented</t>
+  </si>
+  <si>
+    <t>fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,12 +89,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,15 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,6 +427,61 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
